--- a/data/processed/state_overviews/district-of-columbia_overview.xlsx
+++ b/data/processed/state_overviews/district-of-columbia_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1592</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>District of Columbia</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1592</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -483,6 +487,38 @@
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$18,688,408,098</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.72%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>-9.87%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>62.94%</t>
         </is>
@@ -539,8 +575,10 @@
           <t>Delegate District (at Large)</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1592</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -569,8 +607,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1592</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -644,8 +684,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>226</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -674,8 +716,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>594</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -704,8 +748,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>235</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -734,8 +780,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>191</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -764,8 +812,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>329</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -794,8 +844,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>17</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -824,8 +876,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1592</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -899,8 +953,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>155</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -929,8 +985,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>212</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -959,8 +1017,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>77</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -989,8 +1049,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>111</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1019,8 +1081,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1049,8 +1113,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>315</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1079,8 +1145,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>142</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1109,8 +1177,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1139,8 +1209,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>241</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1169,8 +1241,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>22</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1199,8 +1273,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>304</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1229,8 +1305,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>8</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1259,8 +1337,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>1592</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/district-of-columbia_overview.xlsx
+++ b/data/processed/state_overviews/district-of-columbia_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,71 +431,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>District of Columbia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,592</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$18,688,408,098</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.72%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9.87%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>62.94%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,6 +519,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>District of Columbia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$18,688,408,098</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.72%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-9.87%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>62.94%</t>
         </is>
@@ -531,7 +563,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -540,71 +572,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Delegate District (at Large)</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1,592</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$18,688,408,098</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.72%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9.87%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>62.94%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>District of Columbia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -628,6 +660,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Delegate district (at large)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,592</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$18,688,408,098</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.72%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-9.87%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>62.94%</t>
         </is>
@@ -654,34 +718,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -713,128 +777,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>329</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$428,712,597</t>
+          <t>$17,853,305,746</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-9.20%</t>
+          <t>-10.99%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>61.62%</t>
+          <t>66.57%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>594</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$56,142,365</t>
+          <t>$428,712,597</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.40%</t>
+          <t>-9.20%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.23%</t>
+          <t>61.62%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$322,500,981</t>
+          <t>$56,142,365</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.24%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>-12.40%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>51.31%</t>
+          <t>67.23%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$17,853,305,746</t>
+          <t>$322,500,981</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.99%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>66.57%</t>
+          <t>51.31%</t>
         </is>
       </c>
     </row>
@@ -923,34 +987,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -982,7 +1046,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1014,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1046,7 +1110,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1110,7 +1174,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1142,7 +1206,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1174,160 +1238,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>241</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,669,607</t>
+          <t>$510,468,702</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25.74%</t>
+          <t>12.57%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-30.49%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>52.28%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$510,468,702</t>
+          <t>$42,369,878</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.57%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-1.75%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>52.28%</t>
+          <t>36.36%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$42,369,878</t>
+          <t>$1,669,607</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>25.74%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>-30.49%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,106,137,720</t>
+          <t>$693,507,966</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.60%</t>
+          <t>11.95%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-5.70%</t>
+          <t>-0.50%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>58.88%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$693,507,966</t>
+          <t>$1,106,137,720</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.95%</t>
+          <t>10.60%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>-5.70%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>58.88%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/district-of-columbia_overview.xlsx
+++ b/data/processed/state_overviews/district-of-columbia_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,592</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$18,688,408,098</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>62.94%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,592</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$18,688,408,098</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>62.94%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1,592</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$18,688,408,098</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>62.94%</t>
         </is>
       </c>
     </row>
@@ -577,27 +577,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -609,27 +609,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -641,59 +641,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,592</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$18,688,408,098</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>62.94%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Delegate district (at large)</t>
+          <t>Delegate District (at Large)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>1,592</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$18,688,408,098</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>62.94%</t>
         </is>
       </c>
     </row>
@@ -718,187 +718,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>66.37%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>226</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$26,963,815</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.13%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-19.09%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>66.37%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>61.62%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$17,853,305,746</t>
+          <t>594</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>$428,712,597</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.99%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>66.57%</t>
+          <t>-9.20%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>67.23%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$428,712,597</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>$56,142,365</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.20%</t>
+          <t>9.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>61.62%</t>
+          <t>-12.40%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>51.31%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$56,142,365</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.00%</t>
+          <t>$322,500,981</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.40%</t>
+          <t>12.24%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>67.23%</t>
+          <t>-0.87%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>66.57%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$322,500,981</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.24%</t>
+          <t>$17,853,305,746</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.87%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>51.31%</t>
+          <t>-10.99%</t>
         </is>
       </c>
     </row>
@@ -910,27 +910,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>64.71%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$782,594</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>40.23%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-14.85%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -942,27 +942,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,592</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$18,688,408,098</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>62.94%</t>
         </is>
       </c>
     </row>
@@ -987,155 +987,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>73.55%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>155</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$109,336,570</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>7.40%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-22.94%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>73.55%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>61.32%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>212</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$431,916,066</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-8.47%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>61.32%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$294,622,837</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.82%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-6.54%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>56.76%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$267,540,870</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10.52%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-3.01%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>56.76%</t>
         </is>
       </c>
     </row>
@@ -1147,251 +1147,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$4,544,365</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>19.78%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-31.83%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>72.70%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>315</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$989,140,755</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>8.74%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-23.71%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>72.70%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>67.61%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>142</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$14,237,152,762</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.68%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-13.58%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>67.61%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$510,468,702</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.57%</t>
+          <t>$1,669,607</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-1.75%</t>
+          <t>25.74%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>52.28%</t>
+          <t>-30.49%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>52.28%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$42,369,878</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.09%</t>
+          <t>$510,468,702</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>12.57%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>36.36%</t>
+          <t>-1.75%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36.36%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,669,607</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>25.74%</t>
+          <t>$42,369,878</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-30.49%</t>
+          <t>15.09%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>6.87%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>58.88%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$693,507,966</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.95%</t>
+          <t>$1,106,137,720</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>10.60%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>-5.70%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>50.00%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,106,137,720</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.60%</t>
+          <t>$693,507,966</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-5.70%</t>
+          <t>11.95%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>58.88%</t>
+          <t>-0.50%</t>
         </is>
       </c>
     </row>
@@ -1403,27 +1403,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>62.94%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>1,592</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$18,688,408,098</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.72%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-9.87%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>62.94%</t>
         </is>
       </c>
     </row>
